--- a/students.xlsx
+++ b/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igeorgiev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igeorgiev\Desktop\DemoProjects\excel_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75CF4E0-0ECC-4CE1-B996-B1672CE997C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056457CD-57AE-415E-83B2-AFDCB5B6BCD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C58178AF-6645-4C9C-87A5-7556B4122BBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Student ID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Genilia</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Shaw</t>
+  </si>
+  <si>
+    <t>Dimitrova</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEA964-D63E-4E38-B661-7D3320037D7D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -579,10 +579,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5">
         <v>35798.520833333336</v>
@@ -593,15 +593,287 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
+        <v>28126.520833333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
         <v>28126.520833333332</v>
       </c>
     </row>
